--- a/examples/puerto_rico/data/data.xlsx
+++ b/examples/puerto_rico/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="202">
   <si>
     <t>connection</t>
   </si>
@@ -399,15 +399,6 @@
     <t>EC_BIO</t>
   </si>
   <si>
-    <t>EC_COAL</t>
-  </si>
-  <si>
-    <t>EC_DSL_CC</t>
-  </si>
-  <si>
-    <t>EC_OIL</t>
-  </si>
-  <si>
     <t>EC_NG_CC</t>
   </si>
   <si>
@@ -459,12 +450,6 @@
     <t>ED_WIND</t>
   </si>
   <si>
-    <t>EI_BATT</t>
-  </si>
-  <si>
-    <t>EI_SOLPV</t>
-  </si>
-  <si>
     <t>Plant1</t>
   </si>
   <si>
@@ -640,6 +625,21 @@
   </si>
   <si>
     <t>hr09</t>
+  </si>
+  <si>
+    <t>ED_NG_CC</t>
+  </si>
+  <si>
+    <t>Plant14</t>
+  </si>
+  <si>
+    <t>Plant15</t>
+  </si>
+  <si>
+    <t>Fuel5</t>
+  </si>
+  <si>
+    <t>Fuel6</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,6 +691,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -717,8 +723,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -744,12 +748,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1081,7 +1100,7 @@
         <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1089,7 +1108,7 @@
         <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1097,10 +1116,10 @@
         <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>160</v>
+        <v>154</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,7 +1127,7 @@
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1116,18 +1135,18 @@
         <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>164</v>
+      <c r="E8" s="20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,15 +1154,15 @@
         <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>166</v>
+      <c r="E10" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,117 +1170,117 @@
         <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>173</v>
+        <v>142</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>174</v>
+        <v>143</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>175</v>
+        <v>144</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>176</v>
+        <v>145</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>177</v>
+        <v>146</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>178</v>
+        <v>147</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>180</v>
+        <v>174</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>181</v>
+        <v>148</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1284,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,20 +1325,20 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>190</v>
+      <c r="F1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1332,19 +1351,19 @@
       <c r="C2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1359,19 +1378,19 @@
         <v>107</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1379,25 +1398,25 @@
         <v>109</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1405,25 +1424,25 @@
         <v>110</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1431,25 +1450,25 @@
         <v>111</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1457,25 +1476,25 @@
         <v>112</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1483,25 +1502,25 @@
         <v>113</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1515,19 +1534,19 @@
         <v>107</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1535,25 +1554,25 @@
         <v>115</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1567,19 +1586,19 @@
         <v>107</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1593,19 +1612,19 @@
         <v>107</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1619,457 +1638,359 @@
         <v>107</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>135</v>
+      <c r="D14" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>134</v>
+      <c r="D15" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>134</v>
+      <c r="D16" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>134</v>
+      <c r="D17" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>134</v>
+      <c r="D18" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>134</v>
+      <c r="D19" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>134</v>
-      </c>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>134</v>
-      </c>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H32" s="6"/>
+      <c r="H28" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D3:H25">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,19 +2005,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2105,39 +2026,39 @@
       <c r="G1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2145,45 +2066,45 @@
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>91.4</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="9">
         <v>34.799999999999997</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="6">
         <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>76</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="C4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="9">
         <v>29.9</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="E4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="7">
         <v>50</v>
       </c>
@@ -2193,20 +2114,20 @@
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>80</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="9">
         <v>40</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="7">
         <v>50</v>
       </c>
@@ -2216,20 +2137,20 @@
       <c r="A6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>89</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="9">
         <v>35.299999999999997</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="E6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="7">
         <v>55</v>
       </c>
@@ -2239,20 +2160,20 @@
       <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>58</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="9">
         <v>34.6</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="E7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="7">
         <v>65</v>
       </c>
@@ -2262,20 +2183,20 @@
       <c r="A8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="9">
         <v>78.5</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="9">
         <v>34.1</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="E8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="7">
         <v>65</v>
       </c>
@@ -2285,532 +2206,435 @@
       <c r="A9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="9">
         <v>63</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="9">
         <v>92</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="E9" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="6">
         <v>100</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="11">
-        <v>84</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11">
+      <c r="B10" s="9">
+        <v>83</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9">
         <v>18000</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>149</v>
+      <c r="G10" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="H10" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>93</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="9">
         <v>45.5</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="6">
+        <v>35</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="6">
-        <v>30</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="11">
-        <v>21</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11">
-        <v>9510</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>149</v>
+      <c r="B12" s="6">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9">
+        <v>9271</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="H12" s="6">
-        <v>20</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>148</v>
+        <v>30</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="11">
-        <v>43</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11">
-        <v>9510</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>149</v>
+      <c r="B13" s="6">
+        <v>33.4</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9">
+        <v>9271</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="H13" s="6">
-        <v>20</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>148</v>
+        <v>25</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="6">
-        <v>100</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="11">
-        <v>98</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="6">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>152</v>
+      <c r="B14" s="23">
+        <v>50</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23">
+        <v>90</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23">
+        <v>15</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="6">
-        <v>84</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="6">
+      <c r="B15" s="23">
+        <v>56</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23">
         <v>13500</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="G15" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="24">
         <v>45</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>148</v>
+      <c r="I15" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="6">
-        <v>85</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="6">
-        <v>8800</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="6">
-        <v>60</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>148</v>
+      <c r="B16" s="25">
+        <v>87</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="23">
+        <v>62.02</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23">
+        <v>55</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="12">
-        <v>85</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="6">
-        <v>6300</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="B17" s="23">
         <v>30</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>148</v>
+      <c r="C17" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="23">
+        <v>42.47</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24">
+        <v>55</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="6">
-        <v>88</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="6">
-        <v>9800</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="B18" s="23">
+        <v>22</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23">
+        <v>9271</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="H18" s="23">
         <v>30</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>148</v>
+      <c r="I18" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="12">
-        <v>85</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="6">
-        <v>6600</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="6">
-        <v>30</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>148</v>
+      <c r="B19" s="23">
+        <v>33.4</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23">
+        <v>9271</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="23">
+        <v>25</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B20" s="6">
-        <v>88</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="6">
-        <v>9800</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H20" s="7">
-        <v>30</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>148</v>
+        <v>50</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="9">
+        <v>90</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9">
+        <v>15</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B21" s="6">
-        <v>21</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="6">
-        <v>9510</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H21" s="6">
-        <v>30</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>148</v>
+        <v>13500</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="9">
+        <v>45</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="6">
-        <v>43</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="6">
-        <v>9510</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>149</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B22" s="10">
+        <v>87</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="9">
+        <v>54.17</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="6">
-        <v>20</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>148</v>
+        <v>55</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="6">
-        <v>100</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="11">
-        <v>98</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>152</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="9">
+        <v>37.6</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <v>55</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B24" s="6">
-        <v>85</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="6">
-        <v>13500</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="11">
-        <v>45</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>148</v>
+        <v>9271</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="9">
+        <v>30</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="6">
-        <v>88</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+        <v>33.4</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="6">
-        <v>9800</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H25" s="11">
-        <v>30</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="6">
-        <v>21</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="6">
-        <v>9510</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="11">
-        <v>30</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="6">
-        <v>43</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="6">
-        <v>9510</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="11">
-        <v>20</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="6">
-        <v>100</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="11">
-        <v>98</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="6">
-        <v>21</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11">
-        <v>9510</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H29" s="11">
-        <v>30</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>148</v>
+        <v>9271</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H25" s="9">
+        <v>25</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,52 +2702,52 @@
       <c r="D3" s="6">
         <v>75.97</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="9">
         <v>1.919</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>143</v>
+      <c r="G3" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13">
         <v>19.599999999999998</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="E4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="9">
         <v>2.8380000000000001</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>143</v>
+      <c r="G4" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13">
         <v>24.633333333333336</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="9">
         <v>0.99299999999999999</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>143</v>
+      <c r="G5" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2935,14 +2759,14 @@
       <c r="D6" s="6">
         <v>30.57</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="9">
         <v>0.59699999999999998</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>143</v>
+      <c r="G6" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2954,14 +2778,14 @@
       <c r="D7" s="6">
         <v>34.31</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="9">
         <v>0.72199999999999998</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>143</v>
+      <c r="G7" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2973,14 +2797,14 @@
       <c r="D8" s="6">
         <v>45.56</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="E8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="9">
         <v>1.0289999999999999</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>143</v>
+      <c r="G8" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2988,22 +2812,22 @@
         <v>114</v>
       </c>
       <c r="B9" s="6">
-        <v>4000</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="15">
-        <v>60</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F9" s="11">
+        <v>3885</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="13">
+        <v>41</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>147</v>
+      <c r="G9" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3011,18 +2835,18 @@
         <v>115</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15">
-        <v>417.02</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2.581</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>149</v>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13">
+        <v>425.4</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3031,17 +2855,17 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>18.100000000000001</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="E11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="9">
         <v>0</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>143</v>
+      <c r="G11" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -3051,16 +2875,16 @@
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6">
-        <v>22.02</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="11">
+        <v>8</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>149</v>
+      <c r="G12" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3069,399 +2893,307 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6">
-        <v>47.47</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="D13" s="7">
+        <v>50</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="28">
         <v>0</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>149</v>
+      <c r="G13" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="6">
-        <v>2170</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D14" s="6">
-        <v>35.6</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1.978</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>149</v>
+      <c r="B14" s="24">
+        <v>1950</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="24">
+        <v>36.32</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F14" s="24">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="6">
-        <v>3837</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="6">
-        <v>112.15</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1.55</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>149</v>
+      <c r="B15" s="24">
+        <v>3760</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="24">
+        <v>110</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1.389</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="6">
-        <v>3636</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="6">
-        <v>42.1</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F16" s="11">
-        <v>1.278</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>151</v>
+      <c r="B16" s="27">
+        <v>612.6</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="27">
+        <v>10</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="15">
-        <v>982</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="15">
-        <v>10.1</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>149</v>
+      <c r="B17" s="24">
+        <v>188.3</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="24">
+        <v>12</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1.944</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="6">
-        <v>980</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="14">
-        <v>6.87</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F18" s="11">
-        <v>3.0030000000000001</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>149</v>
+      <c r="B18" s="24">
+        <v>951</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="24">
+        <v>8</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="12">
-        <v>978</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="12">
-        <v>11</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F19" s="11">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>151</v>
+      <c r="B19" s="24">
+        <v>1628</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="24">
+        <v>50</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" s="24">
+        <v>0</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="6">
-        <v>680</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" s="6">
-        <v>6.87</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="11">
-        <v>3.0030000000000001</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>149</v>
+        <v>133</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1950</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="7">
+        <v>36.32</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="28">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="6">
-        <v>2105</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="6">
-        <v>22.02</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>149</v>
+        <v>134</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3760</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="7">
+        <v>110</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="28">
+        <v>1.389</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1657</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="6">
-        <v>47.47</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>149</v>
+        <v>197</v>
+      </c>
+      <c r="B22" s="7">
+        <v>860.9</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="7">
+        <v>10</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2170</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D23" s="6">
-        <v>35.6</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="11">
-        <v>1.978</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>149</v>
+        <v>135</v>
+      </c>
+      <c r="B23" s="7">
+        <v>305.2</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="7">
+        <v>12</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" s="28">
+        <v>1.944</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="6">
-        <v>3837</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="6">
-        <v>112.15</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1.55</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>149</v>
+        <v>136</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1590</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="7">
+        <v>12</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="28">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="6">
-        <v>680</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="6">
-        <v>6.87</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="11">
-        <v>3.0030000000000001</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B26" s="6">
-        <v>2568</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="6">
-        <v>22.02</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="11">
+        <v>137</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1628</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="7">
+        <v>50</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="28">
         <v>0</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="6">
-        <v>1657</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="6">
-        <v>47.47</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" s="11">
-        <v>0</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="6">
-        <f>8559/3</f>
-        <v>2853</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="6">
-        <v>35.6</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="11">
-        <v>1.978</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="6">
-        <v>3674</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="6">
-        <v>22.02</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>149</v>
+      <c r="G25" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,8 +3240,8 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>155</v>
+      <c r="D2" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="E2" t="s">
         <v>77</v>
@@ -3529,7 +3261,7 @@
         <v>0.01</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3540,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3551,7 +3283,7 @@
         <v>0.93</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3562,7 +3294,7 @@
         <v>0.67</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3573,7 +3305,7 @@
         <v>0.73</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3584,7 +3316,7 @@
         <v>0.92</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3597,7 +3329,7 @@
         <v>102.7</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3629,135 +3361,129 @@
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="26">
         <v>290</v>
       </c>
-      <c r="E15" t="s">
-        <v>150</v>
-      </c>
+      <c r="E15" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26">
+        <v>900</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26">
+        <v>91.44</v>
+      </c>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21">
+        <v>290</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0.92</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21">
+      <c r="C22" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25">
         <v>91.44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24">
-        <v>290</v>
-      </c>
-      <c r="E24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F27">
-        <v>91.44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3771,7 +3497,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3799,8 +3525,8 @@
       <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>155</v>
+      <c r="B2" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -3813,336 +3539,336 @@
       <c r="A3" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>454</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>2002</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>378</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>1973</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>247.5</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>1997</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>220</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>2009</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>296</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>1975</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <v>296</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>1976</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="16">
         <v>440</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>2008</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>900</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>1971</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>85</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>1960</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>85</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>1962</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>410</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>1969</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>410</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>1972</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="16">
         <v>170</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>1959</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="16">
         <v>200</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>1964</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="16">
         <v>100</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>1965</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="16">
         <v>100</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>1966</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="16">
         <v>216</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <v>1967</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="16">
         <v>216</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="15">
         <v>1968</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>100</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <v>1953</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>2.4</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="15">
         <v>2015</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>507</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="15">
         <v>2000</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="17">
         <v>22.1</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="18">
         <v>2012</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="17">
         <v>30</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="18">
         <v>2015</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>102</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="15">
         <v>2012</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4221,7 +3947,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>35</v>
@@ -4251,14 +3977,14 @@
       <c r="B3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>193</v>
+      <c r="C3" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4268,14 +3994,14 @@
       <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>194</v>
+      <c r="C4" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4285,14 +4011,14 @@
       <c r="B5" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>195</v>
+      <c r="C5" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4302,14 +4028,14 @@
       <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>196</v>
+      <c r="C6" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4319,14 +4045,14 @@
       <c r="B7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>197</v>
+      <c r="C7" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4336,14 +4062,14 @@
       <c r="B8" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>198</v>
+      <c r="C8" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4353,14 +4079,14 @@
       <c r="B9" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>199</v>
+      <c r="C9" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4370,14 +4096,14 @@
       <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>200</v>
+      <c r="C10" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4387,14 +4113,14 @@
       <c r="B11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>201</v>
+      <c r="C11" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="D11">
         <v>0.96259337132800005</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4404,14 +4130,14 @@
       <c r="B12" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>49</v>
       </c>
       <c r="D12">
         <v>1.60166683138</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4421,14 +4147,14 @@
       <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D13">
         <v>2.95581809344</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4438,14 +4164,14 @@
       <c r="B14" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>51</v>
       </c>
       <c r="D14">
         <v>3.7850790856600001</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4455,14 +4181,14 @@
       <c r="B15" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D15">
         <v>3.7761824652699998</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4472,14 +4198,14 @@
       <c r="B16" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="22" t="s">
         <v>53</v>
       </c>
       <c r="D16">
         <v>3.4941576425399998</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4489,14 +4215,14 @@
       <c r="B17" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D17">
         <v>2.8292392133100002</v>
       </c>
       <c r="E17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4506,14 +4232,14 @@
       <c r="B18" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D18">
         <v>2.31085050602</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4523,14 +4249,14 @@
       <c r="B19" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D19">
         <v>1.6195855478600001</v>
       </c>
       <c r="E19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4540,14 +4266,14 @@
       <c r="B20" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D20">
         <v>0.66482724319599995</v>
       </c>
       <c r="E20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4557,14 +4283,14 @@
       <c r="B21" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4574,14 +4300,14 @@
       <c r="B22" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4591,14 +4317,14 @@
       <c r="B23" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4608,14 +4334,14 @@
       <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4625,14 +4351,14 @@
       <c r="B25" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4642,14 +4368,14 @@
       <c r="B26" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="22" t="s">
         <v>86</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4659,14 +4385,14 @@
       <c r="B27" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>193</v>
+      <c r="C27" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4676,14 +4402,14 @@
       <c r="B28" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>194</v>
+      <c r="C28" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -4693,14 +4419,14 @@
       <c r="B29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>195</v>
+      <c r="C29" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4710,14 +4436,14 @@
       <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>196</v>
+      <c r="C30" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -4727,14 +4453,14 @@
       <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>197</v>
+      <c r="C31" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -4744,14 +4470,14 @@
       <c r="B32" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>198</v>
+      <c r="C32" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -4761,14 +4487,14 @@
       <c r="B33" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>199</v>
+      <c r="C33" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4778,14 +4504,14 @@
       <c r="B34" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>200</v>
+      <c r="C34" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="D34">
         <v>6.8030477198100002E-3</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4795,14 +4521,14 @@
       <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>201</v>
+      <c r="C35" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="D35">
         <v>0.62784163046800001</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4812,14 +4538,14 @@
       <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="22" t="s">
         <v>49</v>
       </c>
       <c r="D36">
         <v>1.5458351067</v>
       </c>
       <c r="E36" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4829,14 +4555,14 @@
       <c r="B37" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D37">
         <v>2.4637406089799998</v>
       </c>
       <c r="E37" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4846,14 +4572,14 @@
       <c r="B38" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="22" t="s">
         <v>51</v>
       </c>
       <c r="D38">
         <v>3.00512030807</v>
       </c>
       <c r="E38" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4863,14 +4589,14 @@
       <c r="B39" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D39">
         <v>3.5308931214800001</v>
       </c>
       <c r="E39" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4880,14 +4606,14 @@
       <c r="B40" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="22" t="s">
         <v>53</v>
       </c>
       <c r="D40">
         <v>3.69605507635</v>
       </c>
       <c r="E40" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4897,14 +4623,14 @@
       <c r="B41" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D41">
         <v>3.3774587455399998</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4914,14 +4640,14 @@
       <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D42">
         <v>2.7769065497900001</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4931,14 +4657,14 @@
       <c r="B43" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D43">
         <v>1.95868836497</v>
       </c>
       <c r="E43" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4948,14 +4674,14 @@
       <c r="B44" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D44">
         <v>1.0106574399199999</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4965,14 +4691,14 @@
       <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4982,14 +4708,14 @@
       <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4999,14 +4725,14 @@
       <c r="B47" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -5016,14 +4742,14 @@
       <c r="B48" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -5033,14 +4759,14 @@
       <c r="B49" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -5050,14 +4776,14 @@
       <c r="B50" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="22" t="s">
         <v>86</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -5067,14 +4793,14 @@
       <c r="B51" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>193</v>
+      <c r="C51" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -5084,14 +4810,14 @@
       <c r="B52" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>194</v>
+      <c r="C52" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="D52">
         <v>0.62471818120800005</v>
       </c>
       <c r="E52" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -5101,14 +4827,14 @@
       <c r="B53" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>195</v>
+      <c r="C53" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="D53">
         <v>0.47888239847899999</v>
       </c>
       <c r="E53" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5118,14 +4844,14 @@
       <c r="B54" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="24" t="s">
-        <v>196</v>
+      <c r="C54" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="D54">
         <v>0.54757875157699998</v>
       </c>
       <c r="E54" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -5135,14 +4861,14 @@
       <c r="B55" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>197</v>
+      <c r="C55" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="D55">
         <v>0.54985832453000005</v>
       </c>
       <c r="E55" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -5152,14 +4878,14 @@
       <c r="B56" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>198</v>
+      <c r="C56" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="D56">
         <v>0.22189131724700001</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -5169,14 +4895,14 @@
       <c r="B57" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>199</v>
+      <c r="C57" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="D57">
         <v>0.33405325538000002</v>
       </c>
       <c r="E57" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -5186,14 +4912,14 @@
       <c r="B58" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="24" t="s">
-        <v>200</v>
+      <c r="C58" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="D58">
         <v>0.45380709599500002</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -5203,14 +4929,14 @@
       <c r="B59" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>201</v>
+      <c r="C59" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="D59">
         <v>0.86262626114300001</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -5220,14 +4946,14 @@
       <c r="B60" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="22" t="s">
         <v>49</v>
       </c>
       <c r="D60">
         <v>1.5905843713600001</v>
       </c>
       <c r="E60" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -5237,14 +4963,14 @@
       <c r="B61" t="s">
         <v>84</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D61">
         <v>1.96580702607</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -5254,14 +4980,14 @@
       <c r="B62" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="22" t="s">
         <v>51</v>
       </c>
       <c r="D62">
         <v>2.0734215959900002</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -5271,14 +4997,14 @@
       <c r="B63" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D63">
         <v>1.9751479163200001</v>
       </c>
       <c r="E63" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -5288,14 +5014,14 @@
       <c r="B64" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="22" t="s">
         <v>53</v>
       </c>
       <c r="D64">
         <v>1.86108929812</v>
       </c>
       <c r="E64" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -5305,14 +5031,14 @@
       <c r="B65" t="s">
         <v>84</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D65">
         <v>1.5555752169499999</v>
       </c>
       <c r="E65" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -5322,14 +5048,14 @@
       <c r="B66" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D66">
         <v>1.4613173328</v>
       </c>
       <c r="E66" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -5339,14 +5065,14 @@
       <c r="B67" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D67">
         <v>1.5585260732399999</v>
       </c>
       <c r="E67" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -5356,14 +5082,14 @@
       <c r="B68" t="s">
         <v>84</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D68">
         <v>1.4215414641899999</v>
       </c>
       <c r="E68" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -5373,14 +5099,14 @@
       <c r="B69" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D69">
         <v>1.1530588855199999</v>
       </c>
       <c r="E69" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -5390,14 +5116,14 @@
       <c r="B70" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D70">
         <v>0.95588318613500001</v>
       </c>
       <c r="E70" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -5407,14 +5133,14 @@
       <c r="B71" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D71">
         <v>0.71502453780499997</v>
       </c>
       <c r="E71" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -5424,14 +5150,14 @@
       <c r="B72" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D72">
         <v>0.63309777596200001</v>
       </c>
       <c r="E72" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -5441,14 +5167,14 @@
       <c r="B73" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D73">
         <v>0.57011478292399997</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -5458,14 +5184,14 @@
       <c r="B74" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="22" t="s">
         <v>86</v>
       </c>
       <c r="D74">
         <v>0.43639495105100001</v>
       </c>
       <c r="E74" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -5475,14 +5201,14 @@
       <c r="B75" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="24" t="s">
-        <v>193</v>
+      <c r="C75" s="22" t="s">
+        <v>188</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -5492,14 +5218,14 @@
       <c r="B76" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="24" t="s">
-        <v>194</v>
+      <c r="C76" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="D76">
         <v>0.38224050632099998</v>
       </c>
       <c r="E76" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -5509,14 +5235,14 @@
       <c r="B77" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="24" t="s">
-        <v>195</v>
+      <c r="C77" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="D77">
         <v>0.52952256720400004</v>
       </c>
       <c r="E77" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -5526,14 +5252,14 @@
       <c r="B78" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="24" t="s">
-        <v>196</v>
+      <c r="C78" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="D78">
         <v>0.59106484547500004</v>
       </c>
       <c r="E78" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -5543,14 +5269,14 @@
       <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="24" t="s">
-        <v>197</v>
+      <c r="C79" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="D79">
         <v>0.54912905000599999</v>
       </c>
       <c r="E79" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -5560,14 +5286,14 @@
       <c r="B80" t="s">
         <v>85</v>
       </c>
-      <c r="C80" s="24" t="s">
-        <v>198</v>
+      <c r="C80" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="D80">
         <v>0.53918644940500005</v>
       </c>
       <c r="E80" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -5577,14 +5303,14 @@
       <c r="B81" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="24" t="s">
-        <v>199</v>
+      <c r="C81" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="D81">
         <v>0.468058436849</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -5594,14 +5320,14 @@
       <c r="B82" t="s">
         <v>85</v>
       </c>
-      <c r="C82" s="24" t="s">
-        <v>200</v>
+      <c r="C82" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="D82">
         <v>0.480675317815</v>
       </c>
       <c r="E82" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -5611,14 +5337,14 @@
       <c r="B83" t="s">
         <v>85</v>
       </c>
-      <c r="C83" s="24" t="s">
-        <v>201</v>
+      <c r="C83" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="D83">
         <v>0.68255839241500005</v>
       </c>
       <c r="E83" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -5628,14 +5354,14 @@
       <c r="B84" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="22" t="s">
         <v>49</v>
       </c>
       <c r="D84">
         <v>1.7770759889000001</v>
       </c>
       <c r="E84" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -5645,14 +5371,14 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="22" t="s">
         <v>50</v>
       </c>
       <c r="D85">
         <v>1.94190941189</v>
       </c>
       <c r="E85" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -5662,14 +5388,14 @@
       <c r="B86" t="s">
         <v>85</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="C86" s="22" t="s">
         <v>51</v>
       </c>
       <c r="D86">
         <v>1.9646325597500001</v>
       </c>
       <c r="E86" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -5679,14 +5405,14 @@
       <c r="B87" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="C87" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D87">
         <v>1.9102379085200001</v>
       </c>
       <c r="E87" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -5696,14 +5422,14 @@
       <c r="B88" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="C88" s="22" t="s">
         <v>53</v>
       </c>
       <c r="D88">
         <v>1.8179456867899999</v>
       </c>
       <c r="E88" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -5713,14 +5439,14 @@
       <c r="B89" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="C89" s="22" t="s">
         <v>54</v>
       </c>
       <c r="D89">
         <v>1.81966855524</v>
       </c>
       <c r="E89" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -5730,14 +5456,14 @@
       <c r="B90" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="C90" s="22" t="s">
         <v>55</v>
       </c>
       <c r="D90">
         <v>1.8376376328499999</v>
       </c>
       <c r="E90" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -5747,14 +5473,14 @@
       <c r="B91" t="s">
         <v>85</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="C91" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D91">
         <v>1.6965337710899999</v>
       </c>
       <c r="E91" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -5764,14 +5490,14 @@
       <c r="B92" t="s">
         <v>85</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="C92" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D92">
         <v>1.7009312804000001</v>
       </c>
       <c r="E92" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -5781,14 +5507,14 @@
       <c r="B93" t="s">
         <v>85</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="C93" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D93">
         <v>1.3156820974500001</v>
       </c>
       <c r="E93" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -5798,14 +5524,14 @@
       <c r="B94" t="s">
         <v>85</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="22" t="s">
         <v>59</v>
       </c>
       <c r="D94">
         <v>0.84444574668700001</v>
       </c>
       <c r="E94" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -5815,14 +5541,14 @@
       <c r="B95" t="s">
         <v>85</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="C95" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D95">
         <v>0.49803910411500002</v>
       </c>
       <c r="E95" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -5832,14 +5558,14 @@
       <c r="B96" t="s">
         <v>85</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="C96" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D96">
         <v>0.18415488182100001</v>
       </c>
       <c r="E96" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -5849,14 +5575,14 @@
       <c r="B97" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="C97" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D97">
         <v>0.20710885994700001</v>
       </c>
       <c r="E97" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -5866,14 +5592,14 @@
       <c r="B98" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="22" t="s">
         <v>86</v>
       </c>
       <c r="D98">
         <v>0.261560949057</v>
       </c>
       <c r="E98" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5899,10 +5625,10 @@
         <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5913,7 +5639,7 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5962,10 +5688,10 @@
         <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5976,12 +5702,12 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B3">
         <v>3.9199999999999999E-2</v>
@@ -5992,7 +5718,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B4">
         <v>3.7499999999999999E-2</v>
@@ -6003,7 +5729,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B5">
         <v>3.6400000000000002E-2</v>
@@ -6014,7 +5740,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B6">
         <v>3.5700000000000003E-2</v>
@@ -6025,7 +5751,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B7">
         <v>3.5700000000000003E-2</v>
@@ -6036,7 +5762,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B8">
         <v>3.6900000000000002E-2</v>
@@ -6047,7 +5773,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B9">
         <v>3.8600000000000002E-2</v>
@@ -6058,7 +5784,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B10">
         <v>3.85E-2</v>
@@ -6069,7 +5795,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B11">
         <v>4.0500000000000001E-2</v>
@@ -6364,7 +6090,7 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6393,7 +6119,7 @@
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6404,7 +6130,7 @@
         <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -6413,7 +6139,7 @@
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6475,7 +6201,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6493,8 +6219,8 @@
       <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>154</v>
+      <c r="D1" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6693,8 +6419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6746,7 +6472,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6778,18 +6504,18 @@
         <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="K2" t="s">
         <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>5.7</v>
@@ -6803,11 +6529,17 @@
       <c r="E3" t="s">
         <v>93</v>
       </c>
+      <c r="H3">
+        <v>13.72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>201</v>
+      </c>
       <c r="J3">
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -6827,24 +6559,21 @@
         <v>93</v>
       </c>
       <c r="H4">
-        <v>90.374362421874778</v>
+        <v>31.16</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="J4">
         <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>192</v>
-      </c>
-      <c r="L4">
-        <v>2040</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>11.456075969803004</v>
@@ -6859,19 +6588,16 @@
         <v>93</v>
       </c>
       <c r="H5">
-        <v>69.342300522122287</v>
+        <v>24.04</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="J5">
         <v>40</v>
       </c>
       <c r="K5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L5">
-        <v>2040</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -6885,18 +6611,18 @@
         <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>39.514495745862192</v>
+        <v>39.51</v>
       </c>
       <c r="I7" t="s">
         <v>91</v>
@@ -6905,12 +6631,12 @@
         <v>40</v>
       </c>
       <c r="K7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>7.1933632529058906</v>
@@ -6925,19 +6651,16 @@
         <v>93</v>
       </c>
       <c r="H8">
-        <v>74.678510909486263</v>
+        <v>24.04</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="J8">
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>192</v>
-      </c>
-      <c r="L8">
-        <v>2040</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -6957,16 +6680,16 @@
         <v>93</v>
       </c>
       <c r="H9">
-        <v>50.300654575027743</v>
+        <v>48.96</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="J9">
         <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -6980,7 +6703,7 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -6994,7 +6717,7 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/examples/puerto_rico/data/data.xlsx
+++ b/examples/puerto_rico/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1615,7 @@
         <v>132</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>131</v>
@@ -1641,7 +1641,7 @@
         <v>132</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>131</v>
@@ -1771,7 +1771,7 @@
         <v>131</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>132</v>
@@ -1797,7 +1797,7 @@
         <v>131</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>132</v>
@@ -1927,7 +1927,7 @@
         <v>131</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>132</v>
@@ -1953,7 +1953,7 @@
         <v>131</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>132</v>
@@ -6419,7 +6419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/examples/puerto_rico/data/data.xlsx
+++ b/examples/puerto_rico/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="200">
   <si>
     <t>connection</t>
   </si>
@@ -634,12 +634,6 @@
   </si>
   <si>
     <t>Plant15</t>
-  </si>
-  <si>
-    <t>Fuel5</t>
-  </si>
-  <si>
-    <t>Fuel6</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -1989,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,9 +2572,9 @@
         <v>136</v>
       </c>
       <c r="B24" s="6">
-        <v>17</v>
-      </c>
-      <c r="C24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>199</v>
       </c>
       <c r="D24" s="9"/>
@@ -2605,7 +2599,7 @@
       <c r="B25" s="6">
         <v>33.4</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>199</v>
       </c>
       <c r="D25" s="9"/>
@@ -2634,7 +2628,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B24" sqref="B24:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,21 +3135,21 @@
         <v>136</v>
       </c>
       <c r="B24" s="7">
-        <v>1590</v>
-      </c>
-      <c r="C24" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>199</v>
       </c>
       <c r="D24" s="7">
-        <v>12</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="28">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="7">
         <v>0</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="6" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3166,19 +3160,19 @@
       <c r="B25" s="7">
         <v>1628</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>199</v>
       </c>
       <c r="D25" s="7">
         <v>50</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F25" s="28">
+      <c r="E25" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="7">
         <v>0</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="6" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6420,7 +6414,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6529,12 +6523,10 @@
       <c r="E3" t="s">
         <v>93</v>
       </c>
-      <c r="H3">
-        <v>13.72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>201</v>
-      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3"/>
       <c r="J3">
         <v>40</v>
       </c>
@@ -6559,10 +6551,10 @@
         <v>93</v>
       </c>
       <c r="H4">
-        <v>31.16</v>
+        <v>90.37</v>
       </c>
       <c r="I4" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="J4">
         <v>40</v>
@@ -6588,10 +6580,10 @@
         <v>93</v>
       </c>
       <c r="H5">
-        <v>24.04</v>
+        <v>69.34</v>
       </c>
       <c r="I5" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="J5">
         <v>40</v>
@@ -6651,10 +6643,10 @@
         <v>93</v>
       </c>
       <c r="H8">
-        <v>24.04</v>
+        <v>67.58</v>
       </c>
       <c r="I8" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="J8">
         <v>40</v>
@@ -6680,10 +6672,10 @@
         <v>93</v>
       </c>
       <c r="H9">
-        <v>48.96</v>
+        <v>50.3</v>
       </c>
       <c r="I9" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="J9">
         <v>40</v>

--- a/examples/puerto_rico/data/data.xlsx
+++ b/examples/puerto_rico/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="941" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ref" sheetId="4" r:id="rId1"/>
@@ -1983,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3415,7 +3415,7 @@
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26">
-        <v>900</v>
+        <v>738</v>
       </c>
       <c r="G18" s="26"/>
     </row>
@@ -3428,7 +3428,7 @@
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26">
-        <v>91.44</v>
+        <v>75.239999999999995</v>
       </c>
       <c r="G19" s="26"/>
     </row>
@@ -3469,15 +3469,15 @@
         <v>136</v>
       </c>
       <c r="F24">
-        <v>900</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F25">
-        <v>91.44</v>
+      <c r="F25" s="3">
+        <v>75.239999999999995</v>
       </c>
     </row>
   </sheetData>
